--- a/medicine/Psychotrope/ThaiBev/ThaiBev.xlsx
+++ b/medicine/Psychotrope/ThaiBev/ThaiBev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ThaiBev est une entreprise brassicole thaïlandaise fondée par Charoen Sirivadhanabhakdi[2] en 2003[3].
+ThaiBev est une entreprise brassicole thaïlandaise fondée par Charoen Sirivadhanabhakdi en 2003.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En janvier 2013, la société signe un accord de 11,2 milliards de dollars US pour reprendre le conglomérat Fraser and Neave, groupe qui détient une participation majoritaire dans Myanmar Brewery Ltd[4].
-En octobre 2017, ThaiBev rachète Myanmar Distillery Co au groupe TPG Capital pour 494,4 millions de dollars[5].
-En février 2021, le groupe annonce vouloir vendre une participation de 20% dans sa division BeerCo au moyen d'une IPO à la Bourse de Singapour[6]. Le projet est suspendu quelques mois après[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2013, la société signe un accord de 11,2 milliards de dollars US pour reprendre le conglomérat Fraser and Neave, groupe qui détient une participation majoritaire dans Myanmar Brewery Ltd.
+En octobre 2017, ThaiBev rachète Myanmar Distillery Co au groupe TPG Capital pour 494,4 millions de dollars.
+En février 2021, le groupe annonce vouloir vendre une participation de 20% dans sa division BeerCo au moyen d'une IPO à la Bourse de Singapour. Le projet est suspendu quelques mois après.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Produits et activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle produit notamment la bière Chang. Outre la Thaïlande, elle possède des usines en Chine, Écosse, France, Irlande et Pologne. Elle est cotée à la bourse de Singapour depuis 2006[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle produit notamment la bière Chang. Outre la Thaïlande, elle possède des usines en Chine, Écosse, France, Irlande et Pologne. Elle est cotée à la bourse de Singapour depuis 2006.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Groupe de marques commerciales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thai Beverage Brands Co. Ltd.
 Archa Beer Co. Ltd.
